--- a/assets/Data Collections/Pubs & Bars.xlsx
+++ b/assets/Data Collections/Pubs & Bars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TrekBuddy\assets\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB6D82-D98C-41E2-ADDE-F5006CCE92A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A749898-E5A2-4053-9D9D-FD18984C8999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pubs" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="Live Music Bars" sheetId="4" r:id="rId4"/>
     <sheet name="Dance Clubs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
   <si>
     <t>Pub Name</t>
   </si>
@@ -105,16 +116,228 @@
   </si>
   <si>
     <t>DJ / Live</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Heist+Puducherry</t>
+  </si>
+  <si>
+    <t>Heist Nightlife</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>EDM / Bollywood</t>
+  </si>
+  <si>
+    <t>Lawspet</t>
+  </si>
+  <si>
+    <t>6–8 PM</t>
+  </si>
+  <si>
+    <t>21+</t>
+  </si>
+  <si>
+    <t>Smart Casual</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Fri–Sat</t>
+  </si>
+  <si>
+    <t>Popular nightlife spot</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=LAqua+Puducherry</t>
+  </si>
+  <si>
+    <t>L’Aqua Resto Pub</t>
+  </si>
+  <si>
+    <t>Soft Music / Lounge</t>
+  </si>
+  <si>
+    <t>White Town</t>
+  </si>
+  <si>
+    <t>3–6 PM</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Sat–Sun</t>
+  </si>
+  <si>
+    <t>Near rock beach</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Storytellers+Bar+Puducherry</t>
+  </si>
+  <si>
+    <t>The Storytellers’ Bar</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Cocktails, Wine</t>
+  </si>
+  <si>
+    <t>4–6 PM</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Artistic theme</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Palais+de+Mahe+Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palais de Mahe Bar</t>
+  </si>
+  <si>
+    <t>Heritage luxury bar</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Cafe+Xtasi+Puducherry</t>
+  </si>
+  <si>
+    <t>Café Xtasi Rooftop</t>
+  </si>
+  <si>
+    <t>Casual Lounge</t>
+  </si>
+  <si>
+    <t>MG Road Area</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Rooftop seating</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Escape+In+Puducherry</t>
+  </si>
+  <si>
+    <t>Escape In Lounge Pub</t>
+  </si>
+  <si>
+    <t>Party Wear</t>
+  </si>
+  <si>
+    <t>Youth crowd</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Asian+House+Lounge+Puducherry</t>
+  </si>
+  <si>
+    <t>Asian House Lounge</t>
+  </si>
+  <si>
+    <t>Acoustic, Retro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duppuypet</t>
+  </si>
+  <si>
+    <t>7–9 PM</t>
+  </si>
+  <si>
+    <t>Calm ambience</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Shenbaga+Hotel+Live+Music+Bar</t>
+  </si>
+  <si>
+    <t>Hotel Shenbaga Live Bar</t>
+  </si>
+  <si>
+    <t>Soft Rock</t>
+  </si>
+  <si>
+    <t>Muthialpet</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Hotel-based</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Toxic+Club+Puducherry</t>
+  </si>
+  <si>
+    <t>Heritage Town</t>
+  </si>
+  <si>
+    <t>Toxic Club</t>
+  </si>
+  <si>
+    <t>EDM, Commercial</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Weekend hotspot</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Flaming+Dragons+Club+Puducherry</t>
+  </si>
+  <si>
+    <t>Flaming Dragons Club</t>
+  </si>
+  <si>
+    <t>EDM, House</t>
+  </si>
+  <si>
+    <t>Tourist heavy</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Cross+Keys+Puducherry</t>
+  </si>
+  <si>
+    <t>Cross Keys Dance Floor</t>
+  </si>
+  <si>
+    <t>Bollywood Mix</t>
+  </si>
+  <si>
+    <t>Hotel club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,13 +360,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,18 +675,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="25.7109375" customWidth="1"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="15" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,25 +735,129 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8098985050</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4132349032</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{56AB9248-37D7-490D-8D3D-DEB99F019BAD}"/>
+    <hyperlink ref="F2:F3" r:id="rId2" display="Pubs &amp; Bars.xlsx" xr:uid="{3010B0B4-C9FD-4E25-84EA-41FB83932188}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1048576"/>
+      <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="25.7109375" customWidth="1"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -564,25 +901,126 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8189800044</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7594012555</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E3BC66D8-27E6-4CA3-8739-22C7AA38A63D}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{77C12210-C9E5-40FB-A5D2-AB3BA2E6DA20}"/>
+    <hyperlink ref="F2:F3" r:id="rId3" display="Pubs &amp; Bars.xlsx" xr:uid="{4DCC8A18-9690-4ED1-9729-15CDFC7D20B6}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="13" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -623,25 +1061,123 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9600543210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4132220330</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C0CAE938-86D5-46C5-B736-E225CDE520D8}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{40910D6A-5A61-407C-A10C-9F0313C6FB44}"/>
+    <hyperlink ref="F2:F3" r:id="rId3" display="Pubs &amp; Bars.xlsx" xr:uid="{69FADDCC-80BF-4D6E-8224-7F0A0CE6F9C0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -679,25 +1215,108 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8248237289</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4132233991</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{619BF347-3D8D-48F8-B2D4-03CB2BEC2224}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E0BECC14-871E-433E-82C3-03F9E7432D2B}"/>
+    <hyperlink ref="F2:F3" r:id="rId3" display="Pubs &amp; Bars.xlsx" xr:uid="{C3DE0AAA-2C32-40B9-ABCA-E405076AA96C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="25.7109375" customWidth="1"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="6" max="13" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -738,7 +1357,140 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4132207500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>500</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8939798002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>500</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8190943308</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1D6B3D43-1820-49ED-9033-C23E72BD26DA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5EE46C3C-1BC7-432A-AB6D-3AB1AA0B224D}"/>
+    <hyperlink ref="F2:F3" r:id="rId3" display="Pubs &amp; Bars.xlsx" xr:uid="{412368F7-0C62-482B-9D0B-AA4CF6687AEB}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{732DE4FC-0C0A-4422-A420-BB85AC832E87}"/>
+    <hyperlink ref="F4" r:id="rId5" display="Pubs &amp; Bars.xlsx" xr:uid="{5475E754-2562-4C25-9872-36DC2C9CADC1}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>